--- a/ToDoList_Form.xlsx
+++ b/ToDoList_Form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Code\ToDoList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB10F7C1-6270-406A-8CD5-BB30271C47CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02279680-6C11-4F1B-A0E1-357F336F9B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,24 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="45">
-  <si>
-    <t>No1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="41">
   <si>
     <t>상황</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>업무1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업무2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,10 +82,6 @@
   </si>
   <si>
     <t>전 실에 요청 우편</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업무3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -536,152 +520,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="9" max="9" width="17.09765625" customWidth="1"/>
+    <col min="3" max="3" width="26.296875" customWidth="1"/>
+    <col min="7" max="7" width="17.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
       </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -696,156 +674,156 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
       <c r="I1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2">
         <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3">
         <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="C4">
+      <c r="I4">
         <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5">
         <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6">
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6">
         <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -871,27 +849,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -900,18 +878,18 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -920,18 +898,18 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -940,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -948,13 +926,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -962,13 +940,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -979,7 +957,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>2</v>

--- a/ToDoList_Form.xlsx
+++ b/ToDoList_Form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Code\ToDoList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02279680-6C11-4F1B-A0E1-357F336F9B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD240217-0097-4910-A121-E94A341D4690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3012" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="52">
   <si>
     <t>상황</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>업무명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>완료날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,6 +186,54 @@
   </si>
   <si>
     <t>김현대 책임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무명/내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-00-00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-01-00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-02-00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-02-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-01-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육 전략 수립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터뷰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인원 선정 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보고서 초안 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거 자료 검토</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,146 +564,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.296875" customWidth="1"/>
-    <col min="7" max="7" width="17.09765625" customWidth="1"/>
+    <col min="1" max="1" width="26.296875" customWidth="1"/>
+    <col min="3" max="3" width="17.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>31</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
+      <c r="D6" t="s">
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -671,38 +696,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1592FF-81F6-4037-8761-5AA3618D3B0A}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="24.296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
@@ -710,28 +738,28 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
         <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -739,19 +767,19 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -759,22 +787,22 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -782,22 +810,22 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -805,24 +833,139 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6">
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11">
         <v>3</v>
       </c>
     </row>
@@ -855,21 +998,21 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -878,18 +1021,18 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -898,18 +1041,18 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -918,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -926,13 +1069,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -940,13 +1083,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -957,7 +1100,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7">
         <v>2</v>

--- a/ToDoList_Form.xlsx
+++ b/ToDoList_Form.xlsx
@@ -1186,15 +1186,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
   <cols>
     <col width="24.296875" customWidth="1" min="2" max="2"/>
+    <col width="10.8984375" bestFit="1" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1615,9 +1616,9 @@
           <t>진행</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>22-11-23</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1645,9 +1646,9 @@
           <t>진행</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>22-11-23</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1685,9 +1686,9 @@
           <t>검토</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2022-12-21</t>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>22-11-23</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1702,6 +1703,47 @@
       </c>
       <c r="I14" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>02-03-00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>중간보고</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>기획팀</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>김문석</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>검토</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>22-02-17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>13:MM</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/ToDoList_Form.xlsx
+++ b/ToDoList_Form.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3012" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Add" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Add (2)" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DB" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DB" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1186,577 +1186,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
-  <cols>
-    <col width="24.296875" customWidth="1" min="2" max="2"/>
-    <col width="10.8984375" bestFit="1" customWidth="1" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>업무명/내용</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>담당팀</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>담당자</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>상황</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>완료날짜</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>완료시간</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>비고</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>업무레벨</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>01-00-00</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>인력소요</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>인사팀</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>홍길동 책임</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>진행</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>22-11-29</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>ASAP</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>01-01-00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>전 실에 요청 우편</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>진행</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>22-11-20</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>01-01-01</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>30명 요청</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>차체실</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>완료</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>22-11-23</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>01-01-02</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>실장님 보고 전</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>클로저실</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>진행</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>22-11-23</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>01-01-03</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>우편 미확인</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>외장실</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>검토</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>22-11-24</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>02-00-00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>교육 전략 수립</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>교육팀</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>홍길동 책임</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>진행</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>22-11-29</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ASAP</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="11" t="inlineStr">
-        <is>
-          <t>02-01-00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>인터뷰</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>진행</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>22-11-20</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>02-01-01</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>인원 선정 완료</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>외장실</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>검토</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>22-11-24</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>02-02-00</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>보고서 초안 작성</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>완료</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>22-11-23</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>02-02-01</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>과거 자료 검토</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>클로저실</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>진행</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>22-11-23</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>03-00-00</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>교육 예산 관리</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>진행</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>22-11-23</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>04-00-00</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>핵심인재 추천</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>진행</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>22-11-23</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>05-00-00</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>팀빌딩 워크숍</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>기획팀</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>김문석</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>검토</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>22-11-23</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>팀장 지시</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>02-03-00</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>중간보고</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>기획팀</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>김문석</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>검토</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>22-02-17</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>13:MM</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1927,4 +1356,582 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>업무명/내용</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>담당팀</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>담당자</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>상황</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>완료날짜</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>완료시간</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>비고</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>업무레벨</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>01-00-00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>인력소요</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>인사팀</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>홍길동 책임</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>22-11-29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>ASAP</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>01-01-00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>전 실에 요청 우편</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>22-11-20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>01-01-01</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>30명 요청</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>차체실</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>완료</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>22-11-23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>01-01-02</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>실장님 보고 전</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>클로저실</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>22-11-23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>01-01-03</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>우편 미확인</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>외장실</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>검토</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>01-02-00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>중장기 전략과 비교</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>중단</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3/10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10시</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>02-00-00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>교육 전략 수립</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>교육팀</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>홍길동 책임</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>22-11-29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>ASAP</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>02-01-00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>인터뷰</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>22-11-20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>02-01-01</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>인원 선정 완료</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>외장실</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>검토</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>22-11-24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>02-02-00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>보고서 초안 작성</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>완료</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>22-11-23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>02-02-01</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>과거 자료 검토</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>클로저실</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>22-11-23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>02-03-00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>중간보고</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>내장실</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>홍길동 책임</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>03-00-00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>교육 예산 관리</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>22-11-23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>04-00-00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>핵심인재 추천</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>22-11-23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>05-00-00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>팀빌딩 워크숍</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>기획팀</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>김문석</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>검토</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>22-11-23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>팀장 지시</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/ToDoList_Form.xlsx
+++ b/ToDoList_Form.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Add" sheetId="1" state="visible" r:id="rId1"/>
@@ -1364,7 +1364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1475,6 +1475,16 @@
           <t>전 실에 요청 우편</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>운영팀</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>박대기</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>진행</t>
@@ -1488,6 +1498,11 @@
       <c r="G3" t="inlineStr">
         <is>
           <t>10:30</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -1510,6 +1525,11 @@
           <t>차체실</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>완료</t>
@@ -1523,6 +1543,11 @@
       <c r="G4" t="inlineStr">
         <is>
           <t>10:30</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -1545,6 +1570,11 @@
           <t>클로저실</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>진행</t>
@@ -1558,6 +1588,11 @@
       <c r="G5" t="inlineStr">
         <is>
           <t>10:30</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -1580,6 +1615,11 @@
           <t>외장실</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>검토</t>
@@ -1593,6 +1633,11 @@
       <c r="G6" t="inlineStr">
         <is>
           <t>10:30</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -1610,6 +1655,16 @@
           <t>중장기 전략과 비교</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>중단</t>
@@ -1623,6 +1678,11 @@
       <c r="G7" t="inlineStr">
         <is>
           <t>10시</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -1632,22 +1692,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>02-00-00</t>
+          <t>01-02-01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>교육 전략 수립</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>교육팀</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>홍길동 책임</t>
+          <t>실 코디에게 확인</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1655,34 +1705,19 @@
           <t>진행</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>22-11-29</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ASAP</t>
-        </is>
-      </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>02-01-00</t>
+          <t>01-02-02</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>인터뷰</t>
+          <t>팀 코디 확인</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1690,44 +1725,39 @@
           <t>진행</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>22-11-20</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>02-01-01</t>
+          <t>02-00-00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>인원 선정 완료</t>
+          <t>교육 전략 수립</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>외장실</t>
+          <t>교육팀</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>홍길동 책임</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>검토</t>
+          <t>진행</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>22-11-24</t>
+          <t>22-11-29</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1735,34 +1765,54 @@
           <t>10:30</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>ASAP</t>
+        </is>
+      </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>02-02-00</t>
+          <t>02-01-00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>보고서 초안 작성</t>
+          <t>인터뷰 기획</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>완료</t>
+          <t>진행</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>22-11-23</t>
+          <t>22-11-20</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>10:30</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1772,32 +1822,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>02-02-01</t>
+          <t>02-01-01</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>과거 자료 검토</t>
+          <t>인원 선정 완료</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>클로저실</t>
+          <t>외장실</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>진행</t>
+          <t>검토</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>22-11-23</t>
+          <t>22-11-24</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>10:30</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1807,34 +1867,67 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>02-03-00</t>
+          <t>02-02-00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>중간보고</t>
+          <t>보고서 초안 작성</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>내장실</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>홍길동 책임</t>
-        </is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>완료</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>22-11-23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>03-00-00</t>
+          <t>02-02-01</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>교육 예산 관리</t>
+          <t>과거 자료 검토</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>클로저실</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1849,22 +1942,37 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04-00-00</t>
+          <t>02-02-02</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>핵심인재 추천</t>
+          <t>팀장 보고</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1874,60 +1982,540 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>22-11-23</t>
+          <t>YY-MM-DD</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>HH:MM</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>02-03-00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>중간보고</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>내장실</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>홍길동 책임</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>02-04-00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>팀 의견 종합</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>외장실 전팀</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>03-00-00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>교육 예산 관리</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>22-11-23</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>04-00-00</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>실별 핵심인재 추천</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>전실</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>실코디</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>완료</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>22-11-26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>12시</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>ㅇㅇㅇ</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>05-00-00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>팀빌딩 워크숍</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>기획팀</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>김문석</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>검토</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>22-11-23</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>10:30</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>팀장 지시</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>06-00-00</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>경영층 특강 참석자 선정</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>07-00-00</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>센터 주간이슈 논의회</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>08-00-00</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>경영층 보고</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>09-00-00</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>회의록 작성</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>13-00-00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>dddddddddd</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>14-00-00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>eeeeeeeeee</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>15-00-00</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>adfe</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I27" t="n">
         <v>1</v>
       </c>
     </row>

--- a/ToDoList_Form.xlsx
+++ b/ToDoList_Form.xlsx
@@ -9,7 +9,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Add" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Add (2)" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DB" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Person" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DB" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1364,7 +1366,463 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>분류</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>이름</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>전실</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>차체실</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>전실</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>클로저실</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>전실</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>선행실</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>전실</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>외장실</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>전팀</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>차체설계1팀</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>전팀</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>차체설계2팀</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>전팀</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>차체설계3팀</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>전팀</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>외장설계1팀</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>전팀</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dkkkkkkkkkkkkkkkkk</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>전팀</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>daaleiw12222222222222222222222</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>전팀</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>aksdakalskdfasf</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>전팀</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1212123124k</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>전팀</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>외장설계2팀</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>내장실</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>내장설계1팀</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>내장실</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>내장설계2팀</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>123123alsdkjfalsdkfjddddddddddddddddddd</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DSDDDDDDDDDDDDDDD</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1231</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>AAAAAAAAAAAAAAAAAA</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>dskskeie</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BBBBBBBBBBBBBBBB</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>wiwoiwe</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CCCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>lv,픝</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1123123</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>이이느으</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DDAAW</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>크크크크ㅡ</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>DDDQ1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>크크크크ㅡ</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>GTHYYH</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>분류</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>이름</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>실코디</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>차차차</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>실코디</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>외외외</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>실코디</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>클클클</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>팀코디</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>팀코디</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>박현대</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>팀코디</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>최기아</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>원가</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>가가가</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>원가</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>나나나</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>원가</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>다다다</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>원가</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>라라라</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2137,7 +2595,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>완료</t>
+          <t>진행</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2152,7 +2610,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>ㅇㅇㅇ</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -2381,141 +2839,6 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>13-00-00</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>dddddddddd</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>진행</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>14-00-00</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>eeeeeeeeee</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>진행</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>15-00-00</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>adfe</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>진행</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I27" t="n">
         <v>1</v>
       </c>
     </row>

--- a/ToDoList_Form.xlsx
+++ b/ToDoList_Form.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Add" sheetId="1" state="visible" r:id="rId1"/>
@@ -1368,8 +1368,8 @@
   </sheetPr>
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
@@ -1822,7 +1822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2620,42 +2620,42 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>05-00-00</t>
+          <t>06-00-00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>팀빌딩 워크숍</t>
+          <t>경영층 특강 참석자 선정</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>기획팀</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>김문석</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>검토</t>
+          <t>진행</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>22-11-23</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>팀장 지시</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -2665,12 +2665,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>06-00-00</t>
+          <t>07-00-00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>경영층 특강 참석자 선정</t>
+          <t>센터 주간이슈 논의회</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2710,12 +2710,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>07-00-00</t>
+          <t>07-01-00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>센터 주간이슈 논의회</t>
+          <t>메일 송부</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2749,18 +2749,18 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>08-00-00</t>
+          <t>07-01-01</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>경영층 보고</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2794,18 +2794,18 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>09-00-00</t>
+          <t>08-00-00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>회의록 작성</t>
+          <t>경영층 보고</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2840,6 +2840,411 @@
       </c>
       <c r="I24" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>08-01-00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>완료</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>차체설계1팀</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>08-02-00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>차체설계2팀</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>08-03-00</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>차체설계3팀</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>08-04-00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>외장설계1팀</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>08-05-00</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>dkkkkkkkkkkkkkkkkk</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>08-06-00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>daaleiw12222222222222222222222</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>08-07-00</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>aksdakalskdfasf</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>08-08-00</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1212123124k</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>08-09-00</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>외장설계2팀</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/ToDoList_Form.xlsx
+++ b/ToDoList_Form.xlsx
@@ -1822,7 +1822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2620,12 +2620,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>06-00-00</t>
+          <t>04-01-00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>경영층 특강 참석자 선정</t>
+          <t>실 추천</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>차차차</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2659,18 +2659,18 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>07-00-00</t>
+          <t>04-01-01</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>센터 주간이슈 논의회</t>
+          <t>팀장 추천중</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>홍길동</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2690,32 +2690,32 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>10/22</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>10시</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>추천서 작성중</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>07-01-00</t>
+          <t>04-01-02</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>메일 송부</t>
+          <t>팀장 추천중</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>박현대</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2735,17 +2735,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>10/22</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>10시</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>추천서 작성중</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -2755,12 +2755,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>07-01-01</t>
+          <t>04-01-03</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>팀장 추천중</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>최기아</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2780,32 +2780,32 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>10/22</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>10시</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>추천서 작성중</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>08-00-00</t>
+          <t>04-02-00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>경영층 보고</t>
+          <t>실 추천</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2815,7 +2815,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>외외외</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2839,18 +2839,18 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>08-01-00</t>
+          <t>04-02-01</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>완료</t>
+          <t>검토중</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>팀 코디</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2870,17 +2870,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>11라ㅏ아</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>리이니</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>ㄹㅇ라</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2890,12 +2890,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>08-02-00</t>
+          <t>04-02-02</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>검토중</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>팀 코디</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2915,17 +2915,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>11라ㅏ아</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>리이니</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>ㄹㅇ라</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2935,12 +2935,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>08-03-00</t>
+          <t>04-02-03</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>검토중</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>팀 코디</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2960,17 +2960,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>11라ㅏ아</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>리이니</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>ㄹㅇ라</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2980,12 +2980,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>08-04-00</t>
+          <t>04-02-04</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>검토중</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>팀 코디</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -3005,17 +3005,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>11라ㅏ아</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>리이니</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>ㄹㅇ라</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -3025,22 +3025,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>08-05-00</t>
+          <t>04-02-05</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>검토중</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>dkkkkkkkkkkkkkkkkk</t>
+          <t>설계팀</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>팀 코디</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3050,17 +3050,17 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>11라ㅏ아</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>리이니</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>ㄹㅇ라</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -3070,12 +3070,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>08-06-00</t>
+          <t>04-02-06</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>검토중</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>팀 코디</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -3095,17 +3095,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>11라ㅏ아</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>리이니</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>ㄹㅇ라</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -3115,12 +3115,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>08-07-00</t>
+          <t>04-02-07</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>검토중</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3130,7 +3130,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>팀 코디</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3140,17 +3140,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>11라ㅏ아</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>리이니</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>ㄹㅇ라</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -3160,12 +3160,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>08-08-00</t>
+          <t>04-02-08</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>검토중</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>팀 코디</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3185,17 +3185,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>11라ㅏ아</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>리이니</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>ㄹㅇ라</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -3205,45 +3205,810 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>04-02-09</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>검토중</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>외장설계2팀</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>팀 코디</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>11라ㅏ아</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>리이니</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>ㄹㅇ라</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>04-03-00</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>실 추천</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>클클클</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>06-00-00</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>경영층 특강 참석자 선정</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>06-01-00</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>차체실</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>06-02-00</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>클로저실</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>06-03-00</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>선행실</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>06-04-00</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>외장실</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>07-00-00</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>센터 주간이슈 논의회</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>08-00-00</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>경영층 보고</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>08-01-00</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>완료</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>차체설계1팀</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>08-02-00</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>차체설계2팀</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>08-03-00</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>차체설계3팀</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>08-04-00</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>외장설계1팀</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>08-05-00</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>dkkkkkkkkkkkkkkkkk</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>08-06-00</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>daaleiw12222222222222222222222</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>08-07-00</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>aksdakalskdfasf</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>08-08-00</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1212123124k</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
           <t>08-09-00</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
         <is>
           <t>외장설계2팀</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>진행</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>진행</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>2</v>
       </c>
     </row>

--- a/ToDoList_Form.xlsx
+++ b/ToDoList_Form.xlsx
@@ -1366,13 +1366,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -1385,282 +1385,104 @@
           <t>이름</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>분류No</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>전실</t>
+          <t>바디 전실</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>차체실</t>
         </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>전실</t>
+          <t>바디 전실</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>클로저실</t>
         </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>전실</t>
+          <t>바디 전실</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>선행실</t>
         </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>전실</t>
+          <t>바디 전실</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>외장실</t>
         </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>전팀</t>
+          <t>바디 전실</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>차체설계1팀</t>
-        </is>
+          <t>내장실</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>전팀</t>
+          <t>바디 전실</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>차체설계2팀</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>전팀</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>차체설계3팀</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>전팀</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>외장설계1팀</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>전팀</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>dkkkkkkkkkkkkkkkkk</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>전팀</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>daaleiw12222222222222222222222</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>전팀</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>aksdakalskdfasf</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>전팀</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1212123124k</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>전팀</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>외장설계2팀</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>내장실</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>내장설계1팀</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>내장실</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>내장설계2팀</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>123123alsdkjfalsdkfjddddddddddddddddddd</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>DSDDDDDDDDDDDDDDD</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1231</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>AAAAAAAAAAAAAAAAAA</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>dskskeie</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>BBBBBBBBBBBBBBBB</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>wiwoiwe</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>CCCC</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>lv,픝</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1123123</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>이이느으</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>DDAAW</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>크크크크ㅡ</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>DDDQ1</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>크크크크ㅡ</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>GTHYYH</t>
-        </is>
+          <t>안전실</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1670,13 +1492,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -1689,6 +1511,11 @@
           <t>이름</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>분류No</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1701,6 +1528,9 @@
           <t>차차차</t>
         </is>
       </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1710,8 +1540,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>외외외</t>
-        </is>
+          <t>외장책임</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1722,8 +1555,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>클클클</t>
-        </is>
+          <t>내장책임</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1737,6 +1573,9 @@
           <t>홍길동</t>
         </is>
       </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1749,17 +1588,23 @@
           <t>박현대</t>
         </is>
       </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>팀코디</t>
+          <t>원가</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>최기아</t>
-        </is>
+          <t>가가가</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1770,8 +1615,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>가가가</t>
-        </is>
+          <t>나나나</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1782,8 +1630,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>나나나</t>
-        </is>
+          <t>다다다</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1794,25 +1645,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>다다다</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>원가</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
           <t>라라라</t>
         </is>
       </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -2535,17 +2376,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>교육 예산 관리</t>
+          <t>실별 핵심인재 추천</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>전실</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>실코디</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2555,12 +2396,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>22-11-23</t>
+          <t>22-11-26</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12시</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2575,22 +2416,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04-00-00</t>
+          <t>03-01-00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>실별 핵심인재 추천</t>
+          <t>실 추천</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>전실</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>실코디</t>
+          <t>차차차</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2600,12 +2441,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>22-11-26</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>12시</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2614,18 +2455,18 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04-01-00</t>
+          <t>03-01-01</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>실 추천</t>
+          <t>팀장 추천중</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2635,7 +2476,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>차차차</t>
+          <t>홍길동</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2645,17 +2486,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>10/22</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>10시</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>추천서 작성중</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -2665,7 +2506,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04-01-01</t>
+          <t>03-01-02</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2680,7 +2521,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>홍길동</t>
+          <t>박현대</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2710,7 +2551,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04-01-02</t>
+          <t>03-01-03</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2725,7 +2566,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>박현대</t>
+          <t>최기아</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2755,12 +2596,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04-01-03</t>
+          <t>03-02-00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>팀장 추천중</t>
+          <t>실 추천</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2770,7 +2611,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>최기아</t>
+          <t>외외외</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2780,17 +2621,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>10/22</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10시</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>추천서 작성중</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -2800,22 +2641,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04-02-00</t>
+          <t>03-02-01</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>실 추천</t>
+          <t>검토중</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>차체설계1팀</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>외외외</t>
+          <t>팀 코디</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2825,17 +2666,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>11라ㅏ아</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>리이니</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>ㄹㅇ라</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2845,7 +2686,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04-02-01</t>
+          <t>03-02-02</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2855,7 +2696,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>차체설계1팀</t>
+          <t>차체설계2팀</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2890,7 +2731,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>04-02-02</t>
+          <t>03-02-03</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2900,7 +2741,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>차체설계2팀</t>
+          <t>차체설계3팀</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2935,7 +2776,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>04-02-03</t>
+          <t>03-02-04</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2945,7 +2786,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>차체설계3팀</t>
+          <t>외장설계1팀</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2980,7 +2821,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04-02-04</t>
+          <t>03-02-05</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2990,7 +2831,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>외장설계1팀</t>
+          <t>설계팀</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3025,7 +2866,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04-02-05</t>
+          <t>03-02-06</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3035,7 +2876,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>설계팀</t>
+          <t>daaleiw12222222222222222222222</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3070,7 +2911,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>04-02-06</t>
+          <t>03-02-07</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3080,7 +2921,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>daaleiw12222222222222222222222</t>
+          <t>aksdakalskdfasf</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3115,7 +2956,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>04-02-07</t>
+          <t>03-02-08</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3125,7 +2966,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>aksdakalskdfasf</t>
+          <t>1212123124k</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3160,7 +3001,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>04-02-08</t>
+          <t>03-02-09</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3170,7 +3011,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1212123124k</t>
+          <t>외장설계2팀</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3205,22 +3046,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>04-02-09</t>
+          <t>03-03-00</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>검토중</t>
+          <t>실 추천</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>외장설계2팀</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>팀 코디</t>
+          <t>클클클</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3230,17 +3071,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>11라ㅏ아</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>리이니</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>ㄹㅇ라</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -3250,12 +3091,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>04-03-00</t>
+          <t>04-00-00</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>실 추천</t>
+          <t>경영층 특강 참석자 선정</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3265,7 +3106,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>클클클</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3289,23 +3130,23 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>06-00-00</t>
+          <t>04-01-00</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>경영층 특강 참석자 선정</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>차체실</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3334,13 +3175,13 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>06-01-00</t>
+          <t>04-02-00</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3350,7 +3191,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>차체실</t>
+          <t>클로저실</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3385,7 +3226,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>06-02-00</t>
+          <t>04-03-00</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3395,7 +3236,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>클로저실</t>
+          <t>선행실</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3430,7 +3271,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>06-03-00</t>
+          <t>04-04-00</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3440,7 +3281,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>선행실</t>
+          <t>외장실</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3475,17 +3316,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>06-04-00</t>
+          <t>05-00-00</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>센터 주간이슈 논의회</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>외장실</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3514,18 +3355,18 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>07-00-00</t>
+          <t>06-00-00</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>센터 주간이슈 논의회</t>
+          <t>경영층 보고</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3565,17 +3406,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>08-00-00</t>
+          <t>06-01-00</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>경영층 보고</t>
+          <t>완료</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>차체설계1팀</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3604,23 +3445,23 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>08-01-00</t>
+          <t>06-02-00</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>완료</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>차체설계1팀</t>
+          <t>차체설계2팀</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3655,7 +3496,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>08-02-00</t>
+          <t>06-03-00</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3665,7 +3506,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>차체설계2팀</t>
+          <t>차체설계3팀</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3700,7 +3541,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>08-03-00</t>
+          <t>06-04-00</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3710,7 +3551,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>차체설계3팀</t>
+          <t>외장설계1팀</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3745,7 +3586,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>08-04-00</t>
+          <t>06-05-00</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3755,7 +3596,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>외장설계1팀</t>
+          <t>dkkkkkkkkkkkkkkkkk</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3790,7 +3631,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>08-05-00</t>
+          <t>06-06-00</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3800,7 +3641,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>dkkkkkkkkkkkkkkkkk</t>
+          <t>daaleiw12222222222222222222222</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3835,7 +3676,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>08-06-00</t>
+          <t>06-07-00</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3845,7 +3686,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>daaleiw12222222222222222222222</t>
+          <t>aksdakalskdfasf</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3880,7 +3721,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>08-07-00</t>
+          <t>06-08-00</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3890,7 +3731,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>aksdakalskdfasf</t>
+          <t>1212123124k</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3925,7 +3766,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>08-08-00</t>
+          <t>06-09-00</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3935,7 +3776,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1212123124k</t>
+          <t>외장설계2팀</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3970,17 +3811,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>08-09-00</t>
+          <t>07-00-00</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>자동화 프로그램 개발</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>외장설계2팀</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -4009,7 +3850,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
